--- a/BloodstreamAPI/testData/gridLayout.xlsx
+++ b/BloodstreamAPI/testData/gridLayout.xlsx
@@ -3,20 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3CEDC5A2-C71B-400A-B35A-E3E3E95938FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E9C7495A-8030-4ABB-816C-0C05F1615F7E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="9585" tabRatio="715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="7020" tabRatio="715" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getTestInfoGridLayout" sheetId="2" r:id="rId1"/>
     <sheet name="getDonationInfoGridLayout" sheetId="3" r:id="rId2"/>
-    <sheet name="poolDetails" sheetId="4" r:id="rId3"/>
-    <sheet name="poolConstituents" sheetId="5" r:id="rId4"/>
-    <sheet name="groupStatusCount" sheetId="6" r:id="rId5"/>
-    <sheet name="putgridLayout" sheetId="7" r:id="rId6"/>
+    <sheet name="putDonationInfogridLayout" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M27"/>
+  <oleSize ref="A7:L21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
   <si>
     <t>GroupStatus</t>
   </si>
@@ -40,9 +37,6 @@
     <t>Sort</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -62,18 +56,6 @@
   </si>
   <si>
     <t>TestInformation</t>
-  </si>
-  <si>
-    <t>/testInfo/poolDetail</t>
-  </si>
-  <si>
-    <t>PoolID</t>
-  </si>
-  <si>
-    <t>/testInfo/poolConstituents</t>
-  </si>
-  <si>
-    <t>/testInfo/groupStatusCount</t>
   </si>
   <si>
     <t>Body</t>
@@ -215,7 +197,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -231,9 +213,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -539,17 +518,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -561,18 +540,18 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -583,13 +562,13 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -605,18 +584,18 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -627,13 +606,13 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -649,18 +628,18 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -691,7 +670,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,17 +682,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -725,18 +704,18 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -747,13 +726,13 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -769,18 +748,18 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -791,13 +770,13 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -813,18 +792,18 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -838,457 +817,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BEF42D-A3E4-4A88-9791-CF6A0267BCC5}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3647A310-75FB-45FE-A804-D8642A60FA0E}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6AE23C-ED38-43E1-8869-59A543319E62}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FC9B42-5356-4D66-ABF8-4EF2DFAF1ABA}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,20 +830,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -1319,20 +852,20 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1343,13 +876,13 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1365,20 +898,20 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1389,13 +922,13 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1411,20 +944,20 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/BloodstreamAPI/testData/gridLayout.xlsx
+++ b/BloodstreamAPI/testData/gridLayout.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E9C7495A-8030-4ABB-816C-0C05F1615F7E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908E6B96-AFFF-43BE-AAF0-840C71CA017B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="7020" tabRatio="715" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="715" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getTestInfoGridLayout" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="putDonationInfogridLayout" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A7:L21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="14">
   <si>
     <t>GroupStatus</t>
   </si>
@@ -61,80 +60,10 @@
     <t>Body</t>
   </si>
   <si>
-    <t>{
-  "gridName": "TestInformation",
-  "layout": [
-    {
-                    "columnName": "TubeID",
-                    "columnPosition": 1,
-                    "isVisible": 1,
-                    "isLocked": 1
-                },
-                {
-                    "columnName": "FlagName",
-                    "columnPosition": 6,
-                    "isVisible": 1,
-                    "isLocked": 0
-                },
-                {
-                    "columnName": "Location",
-                    "columnPosition": 3,
-                    "isVisible": 1,
-                    "isLocked": 0
-                },
-                {
-                    "columnName": "Priority",
-                    "columnPosition": 9,
-                    "isVisible": 0,
-                    "isLocked": 0
-                },
-                {
-                    "columnName": "Site",
-                    "columnPosition": 7,
-                    "isVisible": 1,
-                    "isLocked": 0
-                },
-                {
-                    "columnName": "TestInstrument",
-                    "columnPosition": 4,
-                    "isVisible": 1,
-                    "isLocked": 0
-                },
-                {
-                    "columnName": "WorklistID",
-                    "columnPosition": 8,
-                    "isVisible": 1,
-                    "isLocked": 0
-                },
-                {
-                    "columnName": "PoolingInstrument",
-                    "columnPosition": 10,
-                    "isVisible": 0,
-                    "isLocked": 0
-                },
-                {
-                    "columnName": "Status",
-                    "columnPosition": 11,
-                    "isVisible": 0,
-                    "isLocked": 0
-                },
-                 {
-                    "columnName": "DateTimeOfOrderCreation",
-                    "columnPosition": 5,
-                    "isVisible": 1,
-                    "isLocked": 0
-                },
-                {
-                    "columnName": "Assay",
-                    "columnPosition": 2,
-                    "isVisible": 1,
-                    "isLocked": 0
-                }
-  ]
-}</t>
-  </si>
-  <si>
     <t>DonationInformation</t>
+  </si>
+  <si>
+    <t>DonationInfation</t>
   </si>
 </sst>
 </file>
@@ -501,23 +430,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC16E1A-EBE8-4FD7-9522-847FD03243A9}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -526,7 +455,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -543,7 +472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -554,14 +483,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -570,7 +499,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -587,7 +516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -598,14 +527,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -614,7 +543,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -631,7 +560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -642,16 +571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
     </row>
   </sheetData>
@@ -667,21 +587,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA324F4-6303-45A9-B72B-667907D5EA0F}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -690,7 +610,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -707,9 +627,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -718,14 +638,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -734,7 +654,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -751,9 +671,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -762,14 +682,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -778,7 +698,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -795,9 +715,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -818,18 +738,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FC9B42-5356-4D66-ABF8-4EF2DFAF1ABA}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.90625" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -838,7 +759,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -855,27 +776,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -884,9 +803,9 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1</v>
@@ -901,27 +820,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -930,9 +847,9 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>1</v>
@@ -947,21 +864,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>

--- a/BloodstreamAPI/testData/gridLayout.xlsx
+++ b/BloodstreamAPI/testData/gridLayout.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908E6B96-AFFF-43BE-AAF0-840C71CA017B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{514AA16D-B906-49B0-A58F-288DA03AB023}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="715" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="5745" tabRatio="715" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getTestInfoGridLayout" sheetId="2" r:id="rId1"/>
     <sheet name="getDonationInfoGridLayout" sheetId="3" r:id="rId2"/>
     <sheet name="putDonationInfogridLayout" sheetId="7" r:id="rId3"/>
+    <sheet name="putTestInfogridLayout" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:O17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="14">
   <si>
     <t>GroupStatus</t>
   </si>
@@ -436,17 +438,17 @@
       <selection sqref="A1:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.26953125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -455,7 +457,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -472,7 +474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -483,14 +485,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -499,7 +501,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -516,7 +518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -527,14 +529,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -543,7 +545,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -560,7 +562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -571,7 +573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
     </row>
   </sheetData>
@@ -593,15 +595,15 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -610,7 +612,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -627,7 +629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -638,14 +640,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -654,7 +656,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -671,7 +673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -682,14 +684,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -698,7 +700,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -715,7 +717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -740,17 +742,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FC9B42-5356-4D66-ABF8-4EF2DFAF1ABA}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -759,7 +761,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -776,7 +778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -787,14 +789,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -803,7 +805,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -820,7 +822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -831,14 +833,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -847,7 +849,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -864,7 +866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -875,8 +877,156 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928751EB-AEE1-424B-BB73-34EDBDBF6E22}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>

--- a/BloodstreamAPI/testData/gridLayout.xlsx
+++ b/BloodstreamAPI/testData/gridLayout.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908E6B96-AFFF-43BE-AAF0-840C71CA017B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9B9BACD7-D8F4-480B-9217-D62068C08EE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="715" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getTestInfoGridLayout" sheetId="2" r:id="rId1"/>
     <sheet name="getDonationInfoGridLayout" sheetId="3" r:id="rId2"/>
     <sheet name="putDonationInfogridLayout" sheetId="7" r:id="rId3"/>
+    <sheet name="putTestInfogridLayout" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:J23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="14">
-  <si>
-    <t>GroupStatus</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="13">
   <si>
     <t>PageSize</t>
   </si>
@@ -57,13 +56,13 @@
     <t>TestInformation</t>
   </si>
   <si>
-    <t>Body</t>
-  </si>
-  <si>
     <t>DonationInformation</t>
   </si>
   <si>
-    <t>DonationInfation</t>
+    <t>TestInformation1</t>
+  </si>
+  <si>
+    <t>DonationInformation1</t>
   </si>
 </sst>
 </file>
@@ -433,145 +432,145 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.26953125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>0</v>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
     </row>
   </sheetData>
@@ -590,88 +589,88 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -679,51 +678,51 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>0</v>
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -740,87 +739,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FC9B42-5356-4D66-ABF8-4EF2DFAF1ABA}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -828,55 +827,221 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ADE404-5DD1-4B90-8772-8949891E0469}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>

--- a/BloodstreamAPI/testData/gridLayout.xlsx
+++ b/BloodstreamAPI/testData/gridLayout.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9B9BACD7-D8F4-480B-9217-D62068C08EE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{20E6804B-BC94-42F7-911B-EE79A46540C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getTestInfoGridLayout" sheetId="2" r:id="rId1"/>
@@ -431,7 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC16E1A-EBE8-4FD7-9522-847FD03243A9}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -890,7 +890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ADE404-5DD1-4B90-8772-8949891E0469}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/BloodstreamAPI/testData/gridLayout.xlsx
+++ b/BloodstreamAPI/testData/gridLayout.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{20E6804B-BC94-42F7-911B-EE79A46540C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9399ACDE-3BE4-4338-97B1-91C47DA96C00}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getTestInfoGridLayout" sheetId="2" r:id="rId1"/>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC16E1A-EBE8-4FD7-9522-847FD03243A9}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,7 +890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ADE404-5DD1-4B90-8772-8949891E0469}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/BloodstreamAPI/testData/gridLayout.xlsx
+++ b/BloodstreamAPI/testData/gridLayout.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9399ACDE-3BE4-4338-97B1-91C47DA96C00}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF48527E-785D-4758-AC0D-E8660A4ED008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getTestInfoGridLayout" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="putTestInfogridLayout" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -821,7 +820,7 @@
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -891,7 +890,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +974,7 @@
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1028,18 +1027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
     </row>
   </sheetData>

--- a/BloodstreamAPI/testData/gridLayout.xlsx
+++ b/BloodstreamAPI/testData/gridLayout.xlsx
@@ -3,15 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF48527E-785D-4758-AC0D-E8660A4ED008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23979777-B524-434F-87E7-590F06E3BF50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getTestInfoGridLayout" sheetId="2" r:id="rId1"/>
     <sheet name="getDonationInfoGridLayout" sheetId="3" r:id="rId2"/>
     <sheet name="putDonationInfogridLayout" sheetId="7" r:id="rId3"/>
     <sheet name="putTestInfogridLayout" sheetId="8" r:id="rId4"/>
+    <sheet name="getArchivedSampleGridLayout" sheetId="9" r:id="rId5"/>
+    <sheet name="putArchivedSampleGridLayout" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="14">
   <si>
     <t>PageSize</t>
   </si>
@@ -62,6 +64,9 @@
   </si>
   <si>
     <t>DonationInformation1</t>
+  </si>
+  <si>
+    <t>ArchiveSamples</t>
   </si>
 </sst>
 </file>
@@ -588,7 +593,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ADE404-5DD1-4B90-8772-8949891E0469}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,4 +1043,309 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F194F1-3CAC-4702-A8CF-68057B178F07}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E139B7-E55C-448F-BCE3-B1722201D77D}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>